--- a/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2130</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>160</v>
@@ -508,201 +508,473 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>380</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>520</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45495</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45502</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>640</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>340</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45558</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45628</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
         <v>160</v>
       </c>
     </row>
@@ -717,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,89 +1011,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2610</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>440</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>900</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>480</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>560</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1780</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>160</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1175,6 +1176,1083 @@
       </c>
       <c r="B22" t="n">
         <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>176</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-221.2937810430981</v>
+      </c>
+      <c r="D2" t="n">
+        <v>574.3359843326757</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>179</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-226.3821839812109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>595.6056612962052</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>180</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-222.3664907046791</v>
+      </c>
+      <c r="D4" t="n">
+        <v>546.7712207290098</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>182</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-205.370848507278</v>
+      </c>
+      <c r="D5" t="n">
+        <v>583.9405748989474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>184</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-224.5140567050223</v>
+      </c>
+      <c r="D6" t="n">
+        <v>586.9463346520793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>185</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-183.3201383738543</v>
+      </c>
+      <c r="D7" t="n">
+        <v>590.6259359834081</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>186</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-212.62761703661</v>
+      </c>
+      <c r="D8" t="n">
+        <v>626.9786853475017</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>188</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-199.4493316050259</v>
+      </c>
+      <c r="D9" t="n">
+        <v>576.9090993118384</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>189</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-204.1951766372016</v>
+      </c>
+      <c r="D10" t="n">
+        <v>598.9840531078722</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>190</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-182.5575309585291</v>
+      </c>
+      <c r="D11" t="n">
+        <v>596.6444608035571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-199.1057167160041</v>
+      </c>
+      <c r="D12" t="n">
+        <v>626.5821228067858</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>194</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-243.5021326803785</v>
+      </c>
+      <c r="D13" t="n">
+        <v>602.6143746940692</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>195</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-203.9038894116246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>592.3105396825483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>196</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-220.2742139471194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>594.3140026458475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>197</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-200.4364900380933</v>
+      </c>
+      <c r="D16" t="n">
+        <v>596.557983543589</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>198</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-173.3574446461157</v>
+      </c>
+      <c r="D17" t="n">
+        <v>569.8499079520102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>199</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-189.2585270603783</v>
+      </c>
+      <c r="D18" t="n">
+        <v>579.7096157606869</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>201</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-229.9664639681319</v>
+      </c>
+      <c r="D19" t="n">
+        <v>600.0313160607567</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>202</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-178.2481797757084</v>
+      </c>
+      <c r="D20" t="n">
+        <v>609.1954842476508</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>203</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-185.9090853129998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>624.1073957794678</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>205</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-201.7310784401631</v>
+      </c>
+      <c r="D22" t="n">
+        <v>613.7510651393967</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>206</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-214.1130604171393</v>
+      </c>
+      <c r="D23" t="n">
+        <v>618.7959350098621</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>208</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-179.2694108598149</v>
+      </c>
+      <c r="D24" t="n">
+        <v>601.1561200387611</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>209</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-181.1485187884218</v>
+      </c>
+      <c r="D25" t="n">
+        <v>566.6632546365489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>210</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-163.3569947326512</v>
+      </c>
+      <c r="D26" t="n">
+        <v>584.4586643572399</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>212</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-177.2956392054644</v>
+      </c>
+      <c r="D27" t="n">
+        <v>619.5052351942062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>213</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-184.4217862618586</v>
+      </c>
+      <c r="D28" t="n">
+        <v>613.2419314558463</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>214</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-194.5374279525589</v>
+      </c>
+      <c r="D29" t="n">
+        <v>604.126465115535</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>216</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-187.2839303501831</v>
+      </c>
+      <c r="D30" t="n">
+        <v>649.4015600678898</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>217</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-211.1981585782617</v>
+      </c>
+      <c r="D31" t="n">
+        <v>600.937872278896</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>218</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-170.5570822811372</v>
+      </c>
+      <c r="D32" t="n">
+        <v>622.6510501428364</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>219</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-173.6956419490753</v>
+      </c>
+      <c r="D33" t="n">
+        <v>622.2609869189719</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>220</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-184.1796549656065</v>
+      </c>
+      <c r="D34" t="n">
+        <v>623.6169693120794</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>221</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-165.0314081308447</v>
+      </c>
+      <c r="D35" t="n">
+        <v>637.3423953766567</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>224</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-160.973160292597</v>
+      </c>
+      <c r="D36" t="n">
+        <v>645.5603295343711</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>226</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-183.3617361971575</v>
+      </c>
+      <c r="D37" t="n">
+        <v>625.4814051921632</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>227</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-155.8633948847795</v>
+      </c>
+      <c r="D38" t="n">
+        <v>593.471461839224</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>231</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-155.636621029931</v>
+      </c>
+      <c r="D39" t="n">
+        <v>631.6883088334504</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>232</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-168.5643246773315</v>
+      </c>
+      <c r="D40" t="n">
+        <v>641.3419824957049</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>233</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-156.2883394883678</v>
+      </c>
+      <c r="D41" t="n">
+        <v>623.5455756256408</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>234</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-165.2699240195543</v>
+      </c>
+      <c r="D42" t="n">
+        <v>612.0662539262023</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>238</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-153.7323281127556</v>
+      </c>
+      <c r="D43" t="n">
+        <v>666.486186851071</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>239</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-182.6668810794226</v>
+      </c>
+      <c r="D44" t="n">
+        <v>630.9336347633169</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-147.6301595599797</v>
+      </c>
+      <c r="D45" t="n">
+        <v>629.6331569965654</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>241</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-177.1872050064341</v>
+      </c>
+      <c r="D46" t="n">
+        <v>647.2451344780164</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>242</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-186.9074291616142</v>
+      </c>
+      <c r="D47" t="n">
+        <v>628.9249059077263</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>243</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-159.2862493158628</v>
+      </c>
+      <c r="D48" t="n">
+        <v>665.0881067124272</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>244</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-115.1312689617555</v>
+      </c>
+      <c r="D49" t="n">
+        <v>639.6232080673028</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>245</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-117.6462180060578</v>
+      </c>
+      <c r="D50" t="n">
+        <v>638.1051525229697</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>247</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-145.408855490803</v>
+      </c>
+      <c r="D51" t="n">
+        <v>646.2959143681497</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>250</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-165.3965932120313</v>
+      </c>
+      <c r="D52" t="n">
+        <v>638.6484102676289</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>251</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-121.3984117594224</v>
+      </c>
+      <c r="D53" t="n">
+        <v>684.6484196573487</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>254</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-123.0730396216527</v>
+      </c>
+      <c r="D54" t="n">
+        <v>636.2621775965763</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>256</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-141.4407934007868</v>
+      </c>
+      <c r="D55" t="n">
+        <v>674.8099136923742</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>258</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-132.369898481408</v>
+      </c>
+      <c r="D56" t="n">
+        <v>649.5234965979023</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>259</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-152.9410819079981</v>
+      </c>
+      <c r="D57" t="n">
+        <v>662.4296389337251</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>261</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-127.0915982294549</v>
+      </c>
+      <c r="D58" t="n">
+        <v>665.5596720784952</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>262</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-141.4127289914873</v>
+      </c>
+      <c r="D59" t="n">
+        <v>654.7433161650431</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>263</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-136.1247447537564</v>
+      </c>
+      <c r="D60" t="n">
+        <v>669.8993195579857</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>265</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-142.173890175107</v>
+      </c>
+      <c r="D61" t="n">
+        <v>635.7035723261953</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>266</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-93.42307114959921</v>
+      </c>
+      <c r="D62" t="n">
+        <v>680.931514958421</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>267</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-138.9702489399738</v>
+      </c>
+      <c r="D63" t="n">
+        <v>656.658163598227</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>269</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-127.3100267879912</v>
+      </c>
+      <c r="D64" t="n">
+        <v>669.6100712240603</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>270</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-134.3584169603437</v>
+      </c>
+      <c r="D65" t="n">
+        <v>645.854092674898</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>272</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-150.9920962297153</v>
+      </c>
+      <c r="D66" t="n">
+        <v>670.242770598588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>277</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-115.610916849816</v>
+      </c>
+      <c r="D67" t="n">
+        <v>676.0798809664109</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>279</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-111.3943753228034</v>
+      </c>
+      <c r="D68" t="n">
+        <v>647.2118612470805</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>280</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-121.6326832750753</v>
+      </c>
+      <c r="D69" t="n">
+        <v>701.1548263910462</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>281</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-112.0773823057843</v>
+      </c>
+      <c r="D70" t="n">
+        <v>673.2747315810924</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>282</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-175.2527464688468</v>
+      </c>
+      <c r="D71" t="n">
+        <v>643.3669445737552</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>283</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-131.3319248572127</v>
+      </c>
+      <c r="D72" t="n">
+        <v>664.6098885196947</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>284</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-144.3483156169267</v>
+      </c>
+      <c r="D73" t="n">
+        <v>666.6447850652382</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>285</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-132.7123081849538</v>
+      </c>
+      <c r="D74" t="n">
+        <v>672.1591387560208</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>286</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-132.5266567503968</v>
+      </c>
+      <c r="D75" t="n">
+        <v>654.5950616108041</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,16 +1208,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1226,12 +1216,6 @@
       <c r="B2" t="n">
         <v>176</v>
       </c>
-      <c r="C2" t="n">
-        <v>-221.2937810430981</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574.3359843326757</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1240,12 +1224,6 @@
       <c r="B3" t="n">
         <v>179</v>
       </c>
-      <c r="C3" t="n">
-        <v>-226.3821839812109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>595.6056612962052</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1254,12 +1232,6 @@
       <c r="B4" t="n">
         <v>180</v>
       </c>
-      <c r="C4" t="n">
-        <v>-222.3664907046791</v>
-      </c>
-      <c r="D4" t="n">
-        <v>546.7712207290098</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1268,12 +1240,6 @@
       <c r="B5" t="n">
         <v>182</v>
       </c>
-      <c r="C5" t="n">
-        <v>-205.370848507278</v>
-      </c>
-      <c r="D5" t="n">
-        <v>583.9405748989474</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1282,12 +1248,6 @@
       <c r="B6" t="n">
         <v>184</v>
       </c>
-      <c r="C6" t="n">
-        <v>-224.5140567050223</v>
-      </c>
-      <c r="D6" t="n">
-        <v>586.9463346520793</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1296,12 +1256,6 @@
       <c r="B7" t="n">
         <v>185</v>
       </c>
-      <c r="C7" t="n">
-        <v>-183.3201383738543</v>
-      </c>
-      <c r="D7" t="n">
-        <v>590.6259359834081</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1310,12 +1264,6 @@
       <c r="B8" t="n">
         <v>186</v>
       </c>
-      <c r="C8" t="n">
-        <v>-212.62761703661</v>
-      </c>
-      <c r="D8" t="n">
-        <v>626.9786853475017</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1324,12 +1272,6 @@
       <c r="B9" t="n">
         <v>188</v>
       </c>
-      <c r="C9" t="n">
-        <v>-199.4493316050259</v>
-      </c>
-      <c r="D9" t="n">
-        <v>576.9090993118384</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1338,12 +1280,6 @@
       <c r="B10" t="n">
         <v>189</v>
       </c>
-      <c r="C10" t="n">
-        <v>-204.1951766372016</v>
-      </c>
-      <c r="D10" t="n">
-        <v>598.9840531078722</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1352,12 +1288,6 @@
       <c r="B11" t="n">
         <v>190</v>
       </c>
-      <c r="C11" t="n">
-        <v>-182.5575309585291</v>
-      </c>
-      <c r="D11" t="n">
-        <v>596.6444608035571</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1366,12 +1296,6 @@
       <c r="B12" t="n">
         <v>192</v>
       </c>
-      <c r="C12" t="n">
-        <v>-199.1057167160041</v>
-      </c>
-      <c r="D12" t="n">
-        <v>626.5821228067858</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1380,12 +1304,6 @@
       <c r="B13" t="n">
         <v>194</v>
       </c>
-      <c r="C13" t="n">
-        <v>-243.5021326803785</v>
-      </c>
-      <c r="D13" t="n">
-        <v>602.6143746940692</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1394,12 +1312,6 @@
       <c r="B14" t="n">
         <v>195</v>
       </c>
-      <c r="C14" t="n">
-        <v>-203.9038894116246</v>
-      </c>
-      <c r="D14" t="n">
-        <v>592.3105396825483</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1408,12 +1320,6 @@
       <c r="B15" t="n">
         <v>196</v>
       </c>
-      <c r="C15" t="n">
-        <v>-220.2742139471194</v>
-      </c>
-      <c r="D15" t="n">
-        <v>594.3140026458475</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1422,12 +1328,6 @@
       <c r="B16" t="n">
         <v>197</v>
       </c>
-      <c r="C16" t="n">
-        <v>-200.4364900380933</v>
-      </c>
-      <c r="D16" t="n">
-        <v>596.557983543589</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1436,12 +1336,6 @@
       <c r="B17" t="n">
         <v>198</v>
       </c>
-      <c r="C17" t="n">
-        <v>-173.3574446461157</v>
-      </c>
-      <c r="D17" t="n">
-        <v>569.8499079520102</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1450,12 +1344,6 @@
       <c r="B18" t="n">
         <v>199</v>
       </c>
-      <c r="C18" t="n">
-        <v>-189.2585270603783</v>
-      </c>
-      <c r="D18" t="n">
-        <v>579.7096157606869</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1464,12 +1352,6 @@
       <c r="B19" t="n">
         <v>201</v>
       </c>
-      <c r="C19" t="n">
-        <v>-229.9664639681319</v>
-      </c>
-      <c r="D19" t="n">
-        <v>600.0313160607567</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1478,12 +1360,6 @@
       <c r="B20" t="n">
         <v>202</v>
       </c>
-      <c r="C20" t="n">
-        <v>-178.2481797757084</v>
-      </c>
-      <c r="D20" t="n">
-        <v>609.1954842476508</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1492,12 +1368,6 @@
       <c r="B21" t="n">
         <v>203</v>
       </c>
-      <c r="C21" t="n">
-        <v>-185.9090853129998</v>
-      </c>
-      <c r="D21" t="n">
-        <v>624.1073957794678</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1506,12 +1376,6 @@
       <c r="B22" t="n">
         <v>205</v>
       </c>
-      <c r="C22" t="n">
-        <v>-201.7310784401631</v>
-      </c>
-      <c r="D22" t="n">
-        <v>613.7510651393967</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1520,12 +1384,6 @@
       <c r="B23" t="n">
         <v>206</v>
       </c>
-      <c r="C23" t="n">
-        <v>-214.1130604171393</v>
-      </c>
-      <c r="D23" t="n">
-        <v>618.7959350098621</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1534,12 +1392,6 @@
       <c r="B24" t="n">
         <v>208</v>
       </c>
-      <c r="C24" t="n">
-        <v>-179.2694108598149</v>
-      </c>
-      <c r="D24" t="n">
-        <v>601.1561200387611</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1548,12 +1400,6 @@
       <c r="B25" t="n">
         <v>209</v>
       </c>
-      <c r="C25" t="n">
-        <v>-181.1485187884218</v>
-      </c>
-      <c r="D25" t="n">
-        <v>566.6632546365489</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1562,12 +1408,6 @@
       <c r="B26" t="n">
         <v>210</v>
       </c>
-      <c r="C26" t="n">
-        <v>-163.3569947326512</v>
-      </c>
-      <c r="D26" t="n">
-        <v>584.4586643572399</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1576,12 +1416,6 @@
       <c r="B27" t="n">
         <v>212</v>
       </c>
-      <c r="C27" t="n">
-        <v>-177.2956392054644</v>
-      </c>
-      <c r="D27" t="n">
-        <v>619.5052351942062</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1590,12 +1424,6 @@
       <c r="B28" t="n">
         <v>213</v>
       </c>
-      <c r="C28" t="n">
-        <v>-184.4217862618586</v>
-      </c>
-      <c r="D28" t="n">
-        <v>613.2419314558463</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1604,12 +1432,6 @@
       <c r="B29" t="n">
         <v>214</v>
       </c>
-      <c r="C29" t="n">
-        <v>-194.5374279525589</v>
-      </c>
-      <c r="D29" t="n">
-        <v>604.126465115535</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1618,12 +1440,6 @@
       <c r="B30" t="n">
         <v>216</v>
       </c>
-      <c r="C30" t="n">
-        <v>-187.2839303501831</v>
-      </c>
-      <c r="D30" t="n">
-        <v>649.4015600678898</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1632,12 +1448,6 @@
       <c r="B31" t="n">
         <v>217</v>
       </c>
-      <c r="C31" t="n">
-        <v>-211.1981585782617</v>
-      </c>
-      <c r="D31" t="n">
-        <v>600.937872278896</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1646,12 +1456,6 @@
       <c r="B32" t="n">
         <v>218</v>
       </c>
-      <c r="C32" t="n">
-        <v>-170.5570822811372</v>
-      </c>
-      <c r="D32" t="n">
-        <v>622.6510501428364</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1660,12 +1464,6 @@
       <c r="B33" t="n">
         <v>219</v>
       </c>
-      <c r="C33" t="n">
-        <v>-173.6956419490753</v>
-      </c>
-      <c r="D33" t="n">
-        <v>622.2609869189719</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1674,12 +1472,6 @@
       <c r="B34" t="n">
         <v>220</v>
       </c>
-      <c r="C34" t="n">
-        <v>-184.1796549656065</v>
-      </c>
-      <c r="D34" t="n">
-        <v>623.6169693120794</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1688,12 +1480,6 @@
       <c r="B35" t="n">
         <v>221</v>
       </c>
-      <c r="C35" t="n">
-        <v>-165.0314081308447</v>
-      </c>
-      <c r="D35" t="n">
-        <v>637.3423953766567</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1702,12 +1488,6 @@
       <c r="B36" t="n">
         <v>224</v>
       </c>
-      <c r="C36" t="n">
-        <v>-160.973160292597</v>
-      </c>
-      <c r="D36" t="n">
-        <v>645.5603295343711</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1716,12 +1496,6 @@
       <c r="B37" t="n">
         <v>226</v>
       </c>
-      <c r="C37" t="n">
-        <v>-183.3617361971575</v>
-      </c>
-      <c r="D37" t="n">
-        <v>625.4814051921632</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1730,12 +1504,6 @@
       <c r="B38" t="n">
         <v>227</v>
       </c>
-      <c r="C38" t="n">
-        <v>-155.8633948847795</v>
-      </c>
-      <c r="D38" t="n">
-        <v>593.471461839224</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1744,12 +1512,6 @@
       <c r="B39" t="n">
         <v>231</v>
       </c>
-      <c r="C39" t="n">
-        <v>-155.636621029931</v>
-      </c>
-      <c r="D39" t="n">
-        <v>631.6883088334504</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1758,12 +1520,6 @@
       <c r="B40" t="n">
         <v>232</v>
       </c>
-      <c r="C40" t="n">
-        <v>-168.5643246773315</v>
-      </c>
-      <c r="D40" t="n">
-        <v>641.3419824957049</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1772,12 +1528,6 @@
       <c r="B41" t="n">
         <v>233</v>
       </c>
-      <c r="C41" t="n">
-        <v>-156.2883394883678</v>
-      </c>
-      <c r="D41" t="n">
-        <v>623.5455756256408</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1786,12 +1536,6 @@
       <c r="B42" t="n">
         <v>234</v>
       </c>
-      <c r="C42" t="n">
-        <v>-165.2699240195543</v>
-      </c>
-      <c r="D42" t="n">
-        <v>612.0662539262023</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1800,12 +1544,6 @@
       <c r="B43" t="n">
         <v>238</v>
       </c>
-      <c r="C43" t="n">
-        <v>-153.7323281127556</v>
-      </c>
-      <c r="D43" t="n">
-        <v>666.486186851071</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1814,12 +1552,6 @@
       <c r="B44" t="n">
         <v>239</v>
       </c>
-      <c r="C44" t="n">
-        <v>-182.6668810794226</v>
-      </c>
-      <c r="D44" t="n">
-        <v>630.9336347633169</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1828,12 +1560,6 @@
       <c r="B45" t="n">
         <v>240</v>
       </c>
-      <c r="C45" t="n">
-        <v>-147.6301595599797</v>
-      </c>
-      <c r="D45" t="n">
-        <v>629.6331569965654</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1842,12 +1568,6 @@
       <c r="B46" t="n">
         <v>241</v>
       </c>
-      <c r="C46" t="n">
-        <v>-177.1872050064341</v>
-      </c>
-      <c r="D46" t="n">
-        <v>647.2451344780164</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1856,12 +1576,6 @@
       <c r="B47" t="n">
         <v>242</v>
       </c>
-      <c r="C47" t="n">
-        <v>-186.9074291616142</v>
-      </c>
-      <c r="D47" t="n">
-        <v>628.9249059077263</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1870,12 +1584,6 @@
       <c r="B48" t="n">
         <v>243</v>
       </c>
-      <c r="C48" t="n">
-        <v>-159.2862493158628</v>
-      </c>
-      <c r="D48" t="n">
-        <v>665.0881067124272</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1884,12 +1592,6 @@
       <c r="B49" t="n">
         <v>244</v>
       </c>
-      <c r="C49" t="n">
-        <v>-115.1312689617555</v>
-      </c>
-      <c r="D49" t="n">
-        <v>639.6232080673028</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1898,12 +1600,6 @@
       <c r="B50" t="n">
         <v>245</v>
       </c>
-      <c r="C50" t="n">
-        <v>-117.6462180060578</v>
-      </c>
-      <c r="D50" t="n">
-        <v>638.1051525229697</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1912,12 +1608,6 @@
       <c r="B51" t="n">
         <v>247</v>
       </c>
-      <c r="C51" t="n">
-        <v>-145.408855490803</v>
-      </c>
-      <c r="D51" t="n">
-        <v>646.2959143681497</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1926,12 +1616,6 @@
       <c r="B52" t="n">
         <v>250</v>
       </c>
-      <c r="C52" t="n">
-        <v>-165.3965932120313</v>
-      </c>
-      <c r="D52" t="n">
-        <v>638.6484102676289</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1940,12 +1624,6 @@
       <c r="B53" t="n">
         <v>251</v>
       </c>
-      <c r="C53" t="n">
-        <v>-121.3984117594224</v>
-      </c>
-      <c r="D53" t="n">
-        <v>684.6484196573487</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1954,12 +1632,6 @@
       <c r="B54" t="n">
         <v>254</v>
       </c>
-      <c r="C54" t="n">
-        <v>-123.0730396216527</v>
-      </c>
-      <c r="D54" t="n">
-        <v>636.2621775965763</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1968,12 +1640,6 @@
       <c r="B55" t="n">
         <v>256</v>
       </c>
-      <c r="C55" t="n">
-        <v>-141.4407934007868</v>
-      </c>
-      <c r="D55" t="n">
-        <v>674.8099136923742</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1982,12 +1648,6 @@
       <c r="B56" t="n">
         <v>258</v>
       </c>
-      <c r="C56" t="n">
-        <v>-132.369898481408</v>
-      </c>
-      <c r="D56" t="n">
-        <v>649.5234965979023</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1996,12 +1656,6 @@
       <c r="B57" t="n">
         <v>259</v>
       </c>
-      <c r="C57" t="n">
-        <v>-152.9410819079981</v>
-      </c>
-      <c r="D57" t="n">
-        <v>662.4296389337251</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2010,12 +1664,6 @@
       <c r="B58" t="n">
         <v>261</v>
       </c>
-      <c r="C58" t="n">
-        <v>-127.0915982294549</v>
-      </c>
-      <c r="D58" t="n">
-        <v>665.5596720784952</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2024,12 +1672,6 @@
       <c r="B59" t="n">
         <v>262</v>
       </c>
-      <c r="C59" t="n">
-        <v>-141.4127289914873</v>
-      </c>
-      <c r="D59" t="n">
-        <v>654.7433161650431</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2038,12 +1680,6 @@
       <c r="B60" t="n">
         <v>263</v>
       </c>
-      <c r="C60" t="n">
-        <v>-136.1247447537564</v>
-      </c>
-      <c r="D60" t="n">
-        <v>669.8993195579857</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2052,12 +1688,6 @@
       <c r="B61" t="n">
         <v>265</v>
       </c>
-      <c r="C61" t="n">
-        <v>-142.173890175107</v>
-      </c>
-      <c r="D61" t="n">
-        <v>635.7035723261953</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2066,12 +1696,6 @@
       <c r="B62" t="n">
         <v>266</v>
       </c>
-      <c r="C62" t="n">
-        <v>-93.42307114959921</v>
-      </c>
-      <c r="D62" t="n">
-        <v>680.931514958421</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2080,12 +1704,6 @@
       <c r="B63" t="n">
         <v>267</v>
       </c>
-      <c r="C63" t="n">
-        <v>-138.9702489399738</v>
-      </c>
-      <c r="D63" t="n">
-        <v>656.658163598227</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2094,12 +1712,6 @@
       <c r="B64" t="n">
         <v>269</v>
       </c>
-      <c r="C64" t="n">
-        <v>-127.3100267879912</v>
-      </c>
-      <c r="D64" t="n">
-        <v>669.6100712240603</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2108,12 +1720,6 @@
       <c r="B65" t="n">
         <v>270</v>
       </c>
-      <c r="C65" t="n">
-        <v>-134.3584169603437</v>
-      </c>
-      <c r="D65" t="n">
-        <v>645.854092674898</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2122,12 +1728,6 @@
       <c r="B66" t="n">
         <v>272</v>
       </c>
-      <c r="C66" t="n">
-        <v>-150.9920962297153</v>
-      </c>
-      <c r="D66" t="n">
-        <v>670.242770598588</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2136,12 +1736,6 @@
       <c r="B67" t="n">
         <v>277</v>
       </c>
-      <c r="C67" t="n">
-        <v>-115.610916849816</v>
-      </c>
-      <c r="D67" t="n">
-        <v>676.0798809664109</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2150,12 +1744,6 @@
       <c r="B68" t="n">
         <v>279</v>
       </c>
-      <c r="C68" t="n">
-        <v>-111.3943753228034</v>
-      </c>
-      <c r="D68" t="n">
-        <v>647.2118612470805</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2164,12 +1752,6 @@
       <c r="B69" t="n">
         <v>280</v>
       </c>
-      <c r="C69" t="n">
-        <v>-121.6326832750753</v>
-      </c>
-      <c r="D69" t="n">
-        <v>701.1548263910462</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2178,12 +1760,6 @@
       <c r="B70" t="n">
         <v>281</v>
       </c>
-      <c r="C70" t="n">
-        <v>-112.0773823057843</v>
-      </c>
-      <c r="D70" t="n">
-        <v>673.2747315810924</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2192,12 +1768,6 @@
       <c r="B71" t="n">
         <v>282</v>
       </c>
-      <c r="C71" t="n">
-        <v>-175.2527464688468</v>
-      </c>
-      <c r="D71" t="n">
-        <v>643.3669445737552</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2206,12 +1776,6 @@
       <c r="B72" t="n">
         <v>283</v>
       </c>
-      <c r="C72" t="n">
-        <v>-131.3319248572127</v>
-      </c>
-      <c r="D72" t="n">
-        <v>664.6098885196947</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2220,12 +1784,6 @@
       <c r="B73" t="n">
         <v>284</v>
       </c>
-      <c r="C73" t="n">
-        <v>-144.3483156169267</v>
-      </c>
-      <c r="D73" t="n">
-        <v>666.6447850652382</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2234,12 +1792,6 @@
       <c r="B74" t="n">
         <v>285</v>
       </c>
-      <c r="C74" t="n">
-        <v>-132.7123081849538</v>
-      </c>
-      <c r="D74" t="n">
-        <v>672.1591387560208</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2247,12 +1799,6 @@
       </c>
       <c r="B75" t="n">
         <v>286</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-132.5266567503968</v>
-      </c>
-      <c r="D75" t="n">
-        <v>654.5950616108041</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
+++ b/po_analysis_by_asin/B08F7HPJ4F_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,6 +979,14 @@
         <v>160</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -990,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,6 +1186,14 @@
         <v>160</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1189,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,7 +1230,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -1222,7 +1238,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -1230,7 +1246,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1254,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1262,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -1254,7 +1270,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -1262,7 +1278,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9">
@@ -1270,7 +1286,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
@@ -1278,7 +1294,7 @@
         <v>45074.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -1286,7 +1302,7 @@
         <v>45081.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
@@ -1294,7 +1310,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
@@ -1302,7 +1318,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -1310,7 +1326,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -1318,7 +1334,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -1326,7 +1342,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1350,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -1342,7 +1358,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1366,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -1358,7 +1374,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -1366,7 +1382,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -1374,7 +1390,7 @@
         <v>45172.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -1382,7 +1398,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -1422,7 +1438,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1430,7 +1446,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
@@ -1438,7 +1454,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1462,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -1454,7 +1470,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
@@ -1462,7 +1478,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1486,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
@@ -1478,7 +1494,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36">
@@ -1486,7 +1502,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
@@ -1494,7 +1510,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -1502,7 +1518,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39">
@@ -1510,7 +1526,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40">
@@ -1518,7 +1534,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41">
@@ -1526,7 +1542,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
@@ -1534,7 +1550,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43">
@@ -1542,7 +1558,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
@@ -1550,7 +1566,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
@@ -1558,7 +1574,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46">
@@ -1566,7 +1582,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47">
@@ -1574,7 +1590,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48">
@@ -1582,7 +1598,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49">
@@ -1590,7 +1606,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50">
@@ -1598,7 +1614,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51">
@@ -1606,7 +1622,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52">
@@ -1614,7 +1630,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53">
@@ -1622,7 +1638,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
@@ -1630,7 +1646,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55">
@@ -1638,7 +1654,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56">
@@ -1646,7 +1662,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57">
@@ -1654,7 +1670,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58">
@@ -1662,7 +1678,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59">
@@ -1670,7 +1686,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60">
@@ -1678,7 +1694,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61">
@@ -1686,7 +1702,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62">
@@ -1694,7 +1710,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1718,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64">
@@ -1710,7 +1726,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65">
@@ -1718,7 +1734,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66">
@@ -1726,7 +1742,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67">
@@ -1734,71 +1750,79 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>286</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
